--- a/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>23.71211932125124</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.326612638752472</v>
+        <v>1.326612638752475</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.52116260661256</v>
+        <v>-8.789676584777821</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.381748450162294</v>
+        <v>1.414619703678202</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-18.50365011408776</v>
+        <v>-18.95365139986444</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22.32080121068608</v>
+        <v>21.73020720642227</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>13.58719515222561</v>
+        <v>12.97844696539908</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.509829077993643</v>
+        <v>-5.433308530619748</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>12.64772173052812</v>
+        <v>11.61500058549703</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>11.95255155870344</v>
+        <v>12.41726892575871</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.569538106644259</v>
+        <v>-7.181233503421947</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.95299569438842</v>
+        <v>20.35807478891843</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>29.86147630590182</v>
+        <v>32.06551492831655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.093811392277566</v>
+        <v>3.843226676780806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55.06044294968905</v>
+        <v>55.8896470817311</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>47.47153062439833</v>
+        <v>46.77391392904921</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.55634089507453</v>
+        <v>15.4317712846089</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>34.31995486142665</v>
+        <v>35.20693684867273</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>35.06662232313811</v>
+        <v>36.70646366646164</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.823987436527902</v>
+        <v>7.864327416078893</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>2.988681405153134</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1672065862846473</v>
+        <v>0.1672065862846476</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6036311742472966</v>
+        <v>-0.603905929601975</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1536025545091541</v>
+        <v>0.01074990514505467</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9322813553272028</v>
+        <v>-0.9223109285222466</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.257913393111777</v>
+        <v>1.001644226026446</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3854035805700528</v>
+        <v>0.4809071291098963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.461121921282145</v>
+        <v>-0.5355828736068844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7447754223173322</v>
+        <v>0.7834988791830827</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7334355395439009</v>
+        <v>0.8263156310916766</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5419036990060532</v>
+        <v>-0.5088722090425724</v>
       </c>
     </row>
     <row r="9">
@@ -815,25 +815,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.294909095258604</v>
+        <v>5.701188242573359</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>8.962003068309086</v>
+        <v>10.18637068458665</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.811907724657598</v>
+        <v>1.523377646981673</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>9.330842521153016</v>
+        <v>9.304804501570128</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>9.529728193829216</v>
+        <v>10.6343569784395</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.008396395022828</v>
+        <v>2.569644417965577</v>
       </c>
     </row>
     <row r="10">
@@ -863,7 +863,7 @@
         <v>8.241723446868438</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>14.22180778277325</v>
+        <v>14.22180778277324</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>16.31959858216618</v>
@@ -872,7 +872,7 @@
         <v>5.214667753856453</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>11.50536077444168</v>
+        <v>11.50536077444167</v>
       </c>
     </row>
     <row r="11">
@@ -883,31 +883,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.91230634912755</v>
+        <v>0.9617669745044041</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.808760993230369</v>
+        <v>-5.881156531911445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.110164885246677</v>
+        <v>-0.6779094964419785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.646872096335521</v>
+        <v>8.258147448303124</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.005509264807265</v>
+        <v>-3.181087619410692</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.448688846310638</v>
+        <v>5.124512836408739</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.639860975361244</v>
+        <v>8.335912414345001</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.069351111986937</v>
+        <v>-1.777509002769679</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.385868137766097</v>
+        <v>4.778267545570723</v>
       </c>
     </row>
     <row r="12">
@@ -918,31 +918,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.95105892070334</v>
+        <v>23.4889718047266</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.111479330838847</v>
+        <v>8.479191752227253</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.87717280493644</v>
+        <v>15.83995686340819</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32.84838948594525</v>
+        <v>31.97091930983805</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.66648320033373</v>
+        <v>20.04463012271872</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.98744257683743</v>
+        <v>23.31592310328382</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>25.19952669340455</v>
+        <v>24.57763094017329</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.47347164159373</v>
+        <v>12.48190817148378</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>18.32370788663959</v>
+        <v>17.85547262324718</v>
       </c>
     </row>
     <row r="13">
@@ -988,31 +988,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3011073003694691</v>
+        <v>-0.2106709699690625</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8017325071984316</v>
+        <v>-0.7574127253898926</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3208159082460013</v>
+        <v>-0.3016445851610989</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4618226818782687</v>
+        <v>0.3492086702624273</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2349957238731322</v>
+        <v>-0.1905084434359794</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1967303272747026</v>
+        <v>0.2286357096000584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5233534317131551</v>
+        <v>0.5480550271330914</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1839330961853987</v>
+        <v>-0.1694428647385567</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2770604042460603</v>
+        <v>0.3143128725429649</v>
       </c>
     </row>
     <row r="15">
@@ -1022,26 +1022,32 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="n">
+        <v>12.69776434694833</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>5.512398095570573</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>11.50593381930998</v>
+      </c>
       <c r="F15" s="6" t="n">
-        <v>3.982269202232786</v>
+        <v>3.534051097996686</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.173158776496099</v>
+        <v>2.299134921434978</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.73416180495632</v>
+        <v>2.691862747956653</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.587074976427206</v>
+        <v>3.845138887699007</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.83014920763072</v>
+        <v>1.858906609179277</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.091822551657928</v>
+        <v>2.72209324374734</v>
       </c>
     </row>
     <row r="16">
@@ -1091,31 +1097,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6298518530677608</v>
+        <v>0.003404471466007095</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.283298738283245</v>
+        <v>-7.83388531366039</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.347404246181117</v>
+        <v>8.007852812737084</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.551241223353218</v>
+        <v>-2.207322079383424</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.79521319647728</v>
+        <v>-14.14817310836115</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.983315050787291</v>
+        <v>2.402725717388229</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5773372310225139</v>
+        <v>1.093756151553635</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.184997551638617</v>
+        <v>-8.918726641739136</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.992934658878849</v>
+        <v>7.215434695907957</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1132,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.73232016778564</v>
+        <v>25.47630023913851</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.8970838951085</v>
+        <v>10.34347124666211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28.10875707449366</v>
+        <v>27.86771973658576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.66213503054202</v>
+        <v>21.50020971441357</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.540893299441416</v>
+        <v>7.813775584464275</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>22.34992503247716</v>
+        <v>22.61635791614276</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.74338325126715</v>
+        <v>18.70736820620007</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.700746876222355</v>
+        <v>5.558892427392846</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>23.10777580632049</v>
+        <v>22.38193780730685</v>
       </c>
     </row>
     <row r="19">
@@ -1196,31 +1202,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.401839866790735</v>
+        <v>-0.2571041662092752</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7571000680990636</v>
+        <v>-0.7397968939354619</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6487387584561878</v>
+        <v>0.4400107736797106</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.208475069653449</v>
+        <v>-0.1633404793671917</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7247559217356715</v>
+        <v>-0.7785422022475078</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08074661994457664</v>
+        <v>0.09387057986848543</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01824224587681845</v>
+        <v>0.03093325943014301</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6013520029023559</v>
+        <v>-0.6101083708196517</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4707749576424144</v>
+        <v>0.4402553340499641</v>
       </c>
     </row>
     <row r="21">
@@ -1230,32 +1236,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>13.08590511213771</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>6.868197688384434</v>
-      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>14.79183527751153</v>
+        <v>15.72629601831512</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.05676034219075</v>
+        <v>2.706244627179666</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.319715306654228</v>
+        <v>1.072382931473863</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.968700901538075</v>
+        <v>2.964731398865531</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.822325700655786</v>
+        <v>2.894925498096398</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.029428331384337</v>
+        <v>0.8800874402111233</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.467292828997813</v>
+        <v>3.554331380353036</v>
       </c>
     </row>
     <row r="22">
@@ -1285,7 +1287,7 @@
         <v>6.574897604075727</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.100777539509151</v>
+        <v>4.100777539509148</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>8.393605617995792</v>
@@ -1305,31 +1307,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6285273544828377</v>
+        <v>-1.387679788160334</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.544980115948457</v>
+        <v>2.935064242573168</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.990363874780162</v>
+        <v>-3.220485356106145</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.746194311480429</v>
+        <v>-4.821774044801561</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.150274951964627</v>
+        <v>-5.547077570393039</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.236605123477358</v>
+        <v>-6.077288734183663</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3158329251059864</v>
+        <v>-0.6221671724738272</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2537936059349588</v>
+        <v>0.4120624917950785</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.023460720511887</v>
+        <v>-3.824868299818769</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1342,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.98075855882451</v>
+        <v>19.42376376724658</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.30241116792083</v>
+        <v>23.63755584478048</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.42435924782759</v>
+        <v>10.66612418260147</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20.2470232960972</v>
+        <v>20.55517236299596</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>20.24309271810274</v>
+        <v>19.3837304877121</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.86667647166015</v>
+        <v>12.38323770772516</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.86916058244576</v>
+        <v>16.54222624101316</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.90458061900897</v>
+        <v>17.90990614072047</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.13391787741623</v>
+        <v>10.17554586339189</v>
       </c>
     </row>
     <row r="25">
@@ -1390,7 +1392,7 @@
         <v>0.419074530140195</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2613776706596858</v>
+        <v>0.2613776706596856</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.7629953415645512</v>
@@ -1410,31 +1412,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3782294593690851</v>
+        <v>-0.4105091562491697</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06016094460363985</v>
+        <v>0.0740631730033918</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5076119529615711</v>
+        <v>-0.5163971282891073</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2426106005082161</v>
+        <v>-0.2615941443852614</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2746889689969607</v>
+        <v>-0.2954274744271085</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2935017967924068</v>
+        <v>-0.288395575662448</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.00361026820455178</v>
+        <v>-0.05700436197964706</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.009996651478791288</v>
+        <v>-0.001813694791943546</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1979241423488354</v>
+        <v>-0.2376745320543207</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1447,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12.40796188194824</v>
+        <v>15.82622074041216</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13.69513639119678</v>
+        <v>14.56142811699474</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.547345153105949</v>
+        <v>6.384344364035161</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.037611659641778</v>
+        <v>2.170670704516473</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.102193005529664</v>
+        <v>1.963599618524953</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.375111398496291</v>
+        <v>1.316538000975195</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.707995525432212</v>
+        <v>2.349953986532673</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.723544348867004</v>
+        <v>2.501701311352502</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.515454157482748</v>
+        <v>1.571727529044368</v>
       </c>
     </row>
     <row r="28">
@@ -1490,7 +1492,7 @@
         <v>-13.71257774251772</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.4373307727984055</v>
+        <v>-0.4373307727984138</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>8.238024416916847</v>
@@ -1499,7 +1501,7 @@
         <v>1.137337797233437</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.14234130856068</v>
+        <v>2.142341308560685</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.560432114248166</v>
@@ -1508,7 +1510,7 @@
         <v>-5.744854525135398</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.336287828773947</v>
+        <v>1.336287828773949</v>
       </c>
     </row>
     <row r="29">
@@ -1519,31 +1521,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.79184620017681</v>
+        <v>-14.43544569888247</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-30.11192211306361</v>
+        <v>-29.94110826507696</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-17.36820874635544</v>
+        <v>-16.08464622779373</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-10.65255867376594</v>
+        <v>-10.36642543398894</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-16.75206549923074</v>
+        <v>-17.16118069033415</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-13.71859877988462</v>
+        <v>-14.80374424765656</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.700061544533287</v>
+        <v>-5.853981757534993</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-17.72272611231731</v>
+        <v>-18.30102250061858</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-10.79553918559326</v>
+        <v>-10.18813543693546</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1556,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.26024657841515</v>
+        <v>25.19518663695838</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.494424606234021</v>
+        <v>-1.643090654134534</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.88231411424687</v>
+        <v>14.33929996799481</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24.60744225489144</v>
+        <v>24.52318708923644</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>18.48993938620396</v>
+        <v>17.98123102527046</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>15.2543807817626</v>
+        <v>15.00989621487236</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>20.26488374297988</v>
+        <v>20.10033921602506</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.790517168447527</v>
+        <v>4.873523086290136</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.32026137237292</v>
+        <v>11.13469076821479</v>
       </c>
     </row>
     <row r="31">
@@ -1595,7 +1597,7 @@
         <v>-0.7815201668504378</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.02492476797170648</v>
+        <v>-0.02492476797170695</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3916166218901947</v>
@@ -1604,7 +1606,7 @@
         <v>0.05406640761903554</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1018419494450039</v>
+        <v>0.1018419494450041</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3349704608335112</v>
@@ -1613,7 +1615,7 @@
         <v>-0.2933277159482688</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.06822979675964813</v>
+        <v>0.06822979675964827</v>
       </c>
     </row>
     <row r="32">
@@ -1624,31 +1626,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6043352533789945</v>
+        <v>-0.6393803068545573</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6370417364862011</v>
+        <v>-0.5854238203317607</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3416467201942121</v>
+        <v>-0.3732682046816049</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5556008470120204</v>
+        <v>-0.6173968896636095</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4046399481165932</v>
+        <v>-0.4377897731264687</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2780934305008604</v>
+        <v>-0.2713373555386435</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6732491078409564</v>
+        <v>-0.6793882286066365</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3985062207529885</v>
+        <v>-0.3720132419799531</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1661,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.09755467789013</v>
+        <v>3.031724881569727</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4506606484323668</v>
+        <v>0.4020896793375322</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.975915028455304</v>
+        <v>1.948321851524642</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.091309805645979</v>
+        <v>2.141464800892192</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.751708740331127</v>
+        <v>1.695997543605154</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.538400824100588</v>
+        <v>1.5870286216775</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.604016353394899</v>
+        <v>1.656984181932454</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4774197924101103</v>
+        <v>0.4675187222239969</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7972888944791744</v>
+        <v>0.9277260062119471</v>
       </c>
     </row>
     <row r="34">
@@ -1722,7 +1724,7 @@
         <v>16.45407442631173</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>16.7929537181766</v>
+        <v>16.79295371817659</v>
       </c>
     </row>
     <row r="35">
@@ -1733,31 +1735,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.430999391413982</v>
+        <v>0.9400273445066477</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.9236644859726103</v>
+        <v>0.1036725442859952</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.824667549198029</v>
+        <v>4.103794785987954</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.1857477826607107</v>
+        <v>-0.05652650425600226</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.271751647026306</v>
+        <v>3.762023619156746</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>6.841739913548301</v>
+        <v>7.207664689770797</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>4.403609619667884</v>
+        <v>4.548984020713172</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>5.143973196356636</v>
+        <v>5.447876869096749</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>8.721365366893767</v>
+        <v>8.269461568631812</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1770,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>28.92064819290241</v>
+        <v>28.95591147467121</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.09483856166012</v>
+        <v>25.53866545940387</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23.56268545862374</v>
+        <v>24.01447911345684</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>28.08082893428874</v>
+        <v>27.94240740578144</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>34.86349383981071</v>
+        <v>34.60142724285946</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>29.21786312651708</v>
+        <v>29.6013269175693</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>24.3141111152998</v>
+        <v>23.89657761964164</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>26.43250111422592</v>
+        <v>26.64990696124656</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>24.30161047583246</v>
+        <v>23.76668828463507</v>
       </c>
     </row>
     <row r="37">
@@ -1827,7 +1829,7 @@
         <v>1.458799790298539</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.488844448363199</v>
+        <v>1.488844448363198</v>
       </c>
     </row>
     <row r="38">
@@ -1838,31 +1840,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.07197198209913572</v>
+        <v>-0.1200588526454834</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1696776713762175</v>
+        <v>-0.136663715556935</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1846945918526854</v>
+        <v>0.1775628319706385</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.04599326967028771</v>
+        <v>-0.03663437816101199</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.08038608966735246</v>
+        <v>0.152813900747609</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2904616974683281</v>
+        <v>0.2851142537412683</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2414879925619297</v>
+        <v>0.2250836415236024</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.315561765996693</v>
+        <v>0.3110791188857974</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4279915391308758</v>
+        <v>0.4701915822580165</v>
       </c>
     </row>
     <row r="39">
@@ -1873,31 +1875,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>10.60672054536814</v>
+        <v>10.50212750767175</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>7.889901685269775</v>
+        <v>8.633524145805875</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>10.60938174760502</v>
+        <v>10.25359706848506</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3.942207403511005</v>
+        <v>4.127526335974749</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>4.566121566046272</v>
+        <v>5.198029800268516</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>4.281545399947102</v>
+        <v>4.024287433583136</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>3.489538725046881</v>
+        <v>3.38305258637045</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3.83105223290866</v>
+        <v>3.637283922954514</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.666878586164111</v>
+        <v>3.641639426128819</v>
       </c>
     </row>
     <row r="40">
@@ -1947,31 +1949,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.260427695938506</v>
+        <v>3.825944140285769</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.845775158147905</v>
+        <v>2.318659755329279</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.9233823413063157</v>
+        <v>1.054754380290377</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9.721129027002474</v>
+        <v>10.02671768465416</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>14.85375557210758</v>
+        <v>13.90666519183846</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>13.24655414754317</v>
+        <v>13.50094323408811</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>8.278871725333664</v>
+        <v>8.806907507495138</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>11.28326896252741</v>
+        <v>10.81353866203729</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>9.447598585195598</v>
+        <v>9.457904933818298</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1984,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>19.91394813259164</v>
+        <v>20.33080753427189</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>16.20627791282233</v>
+        <v>16.81092207765733</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.56274535795478</v>
+        <v>14.03561681688241</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>26.77397035776351</v>
+        <v>26.01807193621763</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>32.43127464902755</v>
+        <v>31.24628908685029</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>26.86077749303124</v>
+        <v>26.33463079383142</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>20.34425954954286</v>
+        <v>20.51904733571254</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>23.16900524820319</v>
+        <v>22.81155175217445</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.5369558748779</v>
+        <v>18.37591116793375</v>
       </c>
     </row>
     <row r="43">
@@ -2041,7 +2043,7 @@
         <v>4.072913282823053</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>3.382420639798475</v>
+        <v>3.382420639798474</v>
       </c>
     </row>
     <row r="44">
@@ -2052,31 +2054,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1835551914684379</v>
+        <v>0.3116367083168994</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.05665514525256433</v>
+        <v>0.1586606852312783</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.06065296424860674</v>
+        <v>0.1004931508772049</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1.112494335996893</v>
+        <v>1.210446909731907</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>1.759472102396311</v>
+        <v>1.732394106255977</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.477121308811453</v>
+        <v>1.504296134870646</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>1.10599434306386</v>
+        <v>1.317647415174733</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>1.475801714604113</v>
+        <v>1.593671585786703</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.466208008761319</v>
+        <v>1.379809679167858</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2089,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>10.45179289330731</v>
+        <v>10.3492167723529</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>9.003479861830618</v>
+        <v>8.924908238273774</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>6.617997276511588</v>
+        <v>8.801154748029036</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>17.32113881272941</v>
+        <v>12.50535687916453</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>18.80512196249751</v>
+        <v>17.17294736819144</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>16.61232528521676</v>
+        <v>14.08366758849463</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>7.861940219250681</v>
+        <v>8.388887479980792</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>9.229668509978255</v>
+        <v>9.501694712117434</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>8.772622237481325</v>
+        <v>8.179677806646211</v>
       </c>
     </row>
     <row r="46">
@@ -2132,7 +2134,7 @@
         <v>-3.992511343087815</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-3.979575787186405</v>
+        <v>-3.979575787186407</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.4298509199809175</v>
@@ -2161,31 +2163,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-12.16982255406164</v>
+        <v>-12.10205839869683</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-11.89010071721777</v>
+        <v>-12.8587932698162</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-10.60622022542678</v>
+        <v>-11.674873280322</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-9.238504828855902</v>
+        <v>-9.346582547555988</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-13.63794321959565</v>
+        <v>-14.5173519992375</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-8.914622201856346</v>
+        <v>-8.726730644718076</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-7.847964791373714</v>
+        <v>-7.701077163137902</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-11.18244694761795</v>
+        <v>-10.92000630739343</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-7.964277859386291</v>
+        <v>-8.172642414633756</v>
       </c>
     </row>
     <row r="48">
@@ -2196,31 +2198,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.87428902625451</v>
+        <v>4.284128395869609</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.740105089864394</v>
+        <v>3.63389234462231</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.893997805388441</v>
+        <v>3.169720115999693</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>10.01278676816314</v>
+        <v>9.276339895639051</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.843721480348914</v>
+        <v>3.212330649629828</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.799452902408611</v>
+        <v>8.138664354339832</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.022452346725115</v>
+        <v>4.912137447872722</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.190049685682802</v>
+        <v>1.272115648166596</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.13658182113498</v>
+        <v>3.758652999407529</v>
       </c>
     </row>
     <row r="49">
@@ -2237,7 +2239,7 @@
         <v>-0.3046112712497183</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3036243445289534</v>
+        <v>-0.3036243445289535</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.02250384645309088</v>
@@ -2266,31 +2268,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6830392574447088</v>
+        <v>-0.715183532823819</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6795789320425172</v>
+        <v>-0.6989520051040067</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6063392045309456</v>
+        <v>-0.64386167415032</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3797869417855646</v>
+        <v>-0.3973923112409809</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5747053338892508</v>
+        <v>-0.6121085977904048</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3541790069220098</v>
+        <v>-0.3520502175992151</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3881029967550247</v>
+        <v>-0.393987725020338</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5794333599529521</v>
+        <v>-0.5608155021193811</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3819320117395069</v>
+        <v>-0.3882090036818078</v>
       </c>
     </row>
     <row r="51">
@@ -2301,31 +2303,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8053378750313611</v>
+        <v>0.5126428923335947</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4844882591535037</v>
+        <v>0.4899489041928385</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3836812008570715</v>
+        <v>0.4160254444231754</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7271233072952572</v>
+        <v>0.6687371967191235</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4213116695128691</v>
+        <v>0.2270438747868942</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5874401639542983</v>
+        <v>0.6090493211271928</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4033875326663819</v>
+        <v>0.4030273506488692</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.09571482121546687</v>
+        <v>0.1073776506642448</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3358067175439107</v>
+        <v>0.3275545231452854</v>
       </c>
     </row>
     <row r="52">
@@ -2346,7 +2348,7 @@
         <v>3.913380814281246</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>4.710941544227637</v>
+        <v>4.71094154422764</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>12.4437794094473</v>
@@ -2355,7 +2357,7 @@
         <v>8.233217635276491</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>9.568099294529306</v>
+        <v>9.568099294529308</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>10.07919696007992</v>
@@ -2375,31 +2377,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>3.194549559792963</v>
+        <v>3.090918371719817</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.5081045970425343</v>
+        <v>0.5264298955954168</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.744699197752315</v>
+        <v>2.209143863551057</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>8.146127157521677</v>
+        <v>8.119322705276016</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>4.172361630676188</v>
+        <v>3.891691971698075</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>5.981709409430278</v>
+        <v>6.101714059937708</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>7.224106776112809</v>
+        <v>7.089725650786598</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>3.788222445475674</v>
+        <v>3.591630116117202</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>4.942176929279494</v>
+        <v>4.724929970803619</v>
       </c>
     </row>
     <row r="54">
@@ -2410,31 +2412,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>10.83077602560397</v>
+        <v>10.83566719395696</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>7.05039657005786</v>
+        <v>7.265618590111582</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>8.217941649463494</v>
+        <v>8.112863387145037</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>16.5278122000524</v>
+        <v>16.97182879307134</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>12.41734873137175</v>
+        <v>12.68657283266345</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>12.71925313663299</v>
+        <v>12.88542977242521</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>13.41995360054871</v>
+        <v>13.03059346788869</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>9.283410717013158</v>
+        <v>9.178346944499046</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>9.794517823135237</v>
+        <v>9.668962787076945</v>
       </c>
     </row>
     <row r="55">
@@ -2451,7 +2453,7 @@
         <v>0.4928085427658906</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.5932446515283775</v>
+        <v>0.5932446515283778</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.9245811584247671</v>
@@ -2460,7 +2462,7 @@
         <v>0.6117335938153908</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.710916196645439</v>
+        <v>0.7109161966454393</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.9073944219931822</v>
@@ -2480,31 +2482,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.3082480351057985</v>
+        <v>0.3064329434472067</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.06084949553017446</v>
+        <v>0.05340596763618706</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.1761162305338224</v>
+        <v>0.2121874177858271</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.5205108206080526</v>
+        <v>0.5061142349136122</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2576408197619907</v>
+        <v>0.2413424694650575</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3808519650622085</v>
+        <v>0.3784569853923507</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.5698132970485167</v>
+        <v>0.5637316452372877</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.3087630894390522</v>
+        <v>0.2948818098280699</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.3690702733619151</v>
+        <v>0.359917287788132</v>
       </c>
     </row>
     <row r="57">
@@ -2515,31 +2517,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.768832974816422</v>
+        <v>1.68444389542918</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.16027509564257</v>
+        <v>1.158760444901121</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.376132133066359</v>
+        <v>1.328890334738118</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.43314431944314</v>
+        <v>1.475600826761128</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>1.082637329109014</v>
+        <v>1.108772621124513</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.140128702393993</v>
+        <v>1.146834901952478</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.360884684579185</v>
+        <v>1.332119537009668</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.9556658187314296</v>
+        <v>0.9340227869437154</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.009028071357448</v>
+        <v>0.9864422536443919</v>
       </c>
     </row>
     <row r="58">
